--- a/jira_team_productivity_template.xlsx
+++ b/jira_team_productivity_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eijioga/Documents/projects/jira_tp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB32C51F-EE7F-2E4D-90AB-D71E4766A8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D59E80F-F556-464C-B590-EFF100E22FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31760" yWindow="700" windowWidth="24480" windowHeight="16960" xr2:uid="{454DB0FE-2C2B-D843-ABC7-E367AEDCB643}"/>
   </bookViews>
@@ -477,82 +477,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A:$A</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>Month</c:v>
+                  <c:v>1111-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1111-01</c:v>
+                  <c:v>2018-10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018-10</c:v>
+                  <c:v>2018-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2018-11</c:v>
+                  <c:v>2018-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2018-12</c:v>
+                  <c:v>2019-01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2019-01</c:v>
+                  <c:v>2019-02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2019-02</c:v>
+                  <c:v>2019-03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2019-03</c:v>
+                  <c:v>2019-04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2019-04</c:v>
+                  <c:v>2019-05</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2019-05</c:v>
+                  <c:v>2019-06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2019-06</c:v>
+                  <c:v>2019-07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2019-07</c:v>
+                  <c:v>2019-08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2019-08</c:v>
+                  <c:v>2019-09</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2019-09</c:v>
+                  <c:v>2019-10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2019-10</c:v>
+                  <c:v>2019-11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2019-11</c:v>
+                  <c:v>2019-12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2019-12</c:v>
+                  <c:v>2020-01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020-01</c:v>
+                  <c:v>2020-02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2020-02</c:v>
+                  <c:v>2020-03</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020-03</c:v>
+                  <c:v>2020-04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2020-04</c:v>
+                  <c:v>2020-05</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2020-05</c:v>
+                  <c:v>2020-06</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2020-06</c:v>
+                  <c:v>2020-07</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2020-07</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>2020-08</c:v>
                 </c:pt>
               </c:strCache>
@@ -641,82 +638,79 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A:$A</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>Month</c:v>
+                  <c:v>1111-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1111-01</c:v>
+                  <c:v>2018-10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018-10</c:v>
+                  <c:v>2018-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2018-11</c:v>
+                  <c:v>2018-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2018-12</c:v>
+                  <c:v>2019-01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2019-01</c:v>
+                  <c:v>2019-02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2019-02</c:v>
+                  <c:v>2019-03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2019-03</c:v>
+                  <c:v>2019-04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2019-04</c:v>
+                  <c:v>2019-05</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2019-05</c:v>
+                  <c:v>2019-06</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2019-06</c:v>
+                  <c:v>2019-07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2019-07</c:v>
+                  <c:v>2019-08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2019-08</c:v>
+                  <c:v>2019-09</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2019-09</c:v>
+                  <c:v>2019-10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2019-10</c:v>
+                  <c:v>2019-11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2019-11</c:v>
+                  <c:v>2019-12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2019-12</c:v>
+                  <c:v>2020-01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020-01</c:v>
+                  <c:v>2020-02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2020-02</c:v>
+                  <c:v>2020-03</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020-03</c:v>
+                  <c:v>2020-04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2020-04</c:v>
+                  <c:v>2020-05</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2020-05</c:v>
+                  <c:v>2020-06</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2020-06</c:v>
+                  <c:v>2020-07</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2020-07</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>2020-08</c:v>
                 </c:pt>
               </c:strCache>

--- a/jira_team_productivity_template.xlsx
+++ b/jira_team_productivity_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eijioga/Documents/projects/jira_tp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D59E80F-F556-464C-B590-EFF100E22FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C521CE18-778E-AB48-827E-C5A228DABCA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31760" yWindow="700" windowWidth="24480" windowHeight="16960" xr2:uid="{454DB0FE-2C2B-D843-ABC7-E367AEDCB643}"/>
+    <workbookView xWindow="31760" yWindow="700" windowWidth="27600" windowHeight="17440" xr2:uid="{454DB0FE-2C2B-D843-ABC7-E367AEDCB643}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,82 +299,46 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A:$A</c:f>
+              <c:f>Sheet1!$A$13:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>Month</c:v>
+                  <c:v>2019-08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1111-01</c:v>
+                  <c:v>2019-09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018-10</c:v>
+                  <c:v>2019-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2018-11</c:v>
+                  <c:v>2019-11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2018-12</c:v>
+                  <c:v>2019-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2019-01</c:v>
+                  <c:v>2020-01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2019-02</c:v>
+                  <c:v>2020-02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2019-03</c:v>
+                  <c:v>2020-03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2019-04</c:v>
+                  <c:v>2020-04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2019-05</c:v>
+                  <c:v>2020-05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2019-06</c:v>
+                  <c:v>2020-06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2019-07</c:v>
+                  <c:v>2020-07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2019-08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2019-09</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2019-10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2019-11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2019-12</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2020-01</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020-02</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2020-03</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020-04</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2020-05</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2020-06</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2020-07</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>2020-08</c:v>
                 </c:pt>
               </c:strCache>
@@ -477,79 +441,46 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$13:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1111-01</c:v>
+                  <c:v>2019-08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2018-10</c:v>
+                  <c:v>2019-09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018-11</c:v>
+                  <c:v>2019-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2018-12</c:v>
+                  <c:v>2019-11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2019-01</c:v>
+                  <c:v>2019-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2019-02</c:v>
+                  <c:v>2020-01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2019-03</c:v>
+                  <c:v>2020-02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2019-04</c:v>
+                  <c:v>2020-03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2019-05</c:v>
+                  <c:v>2020-04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2019-06</c:v>
+                  <c:v>2020-05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2019-07</c:v>
+                  <c:v>2020-06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2019-08</c:v>
+                  <c:v>2020-07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2019-09</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2019-10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2019-11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2019-12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020-01</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2020-02</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020-03</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2020-04</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020-05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2020-06</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2020-07</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>2020-08</c:v>
                 </c:pt>
               </c:strCache>
@@ -562,16 +493,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>402</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>404</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>406</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>407</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>444</c:v>
@@ -638,79 +569,46 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$13:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1111-01</c:v>
+                  <c:v>2019-08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2018-10</c:v>
+                  <c:v>2019-09</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2018-11</c:v>
+                  <c:v>2019-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2018-12</c:v>
+                  <c:v>2019-11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2019-01</c:v>
+                  <c:v>2019-12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2019-02</c:v>
+                  <c:v>2020-01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2019-03</c:v>
+                  <c:v>2020-02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2019-04</c:v>
+                  <c:v>2020-03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2019-05</c:v>
+                  <c:v>2020-04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2019-06</c:v>
+                  <c:v>2020-05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2019-07</c:v>
+                  <c:v>2020-06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2019-08</c:v>
+                  <c:v>2020-07</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2019-09</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2019-10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2019-11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2019-12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020-01</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2020-02</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020-03</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2020-04</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020-05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2020-06</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2020-07</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>2020-08</c:v>
                 </c:pt>
               </c:strCache>
@@ -809,7 +707,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1931,7 +1829,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1967,14 +1865,12 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="F2">
@@ -1989,14 +1885,12 @@
         <v>35</v>
       </c>
       <c r="C3">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
       <c r="E3">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -2011,14 +1905,12 @@
         <v>36</v>
       </c>
       <c r="C4">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="F4">
@@ -2033,14 +1925,12 @@
         <v>37</v>
       </c>
       <c r="C5">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="F5">
@@ -2055,14 +1945,12 @@
         <v>37</v>
       </c>
       <c r="C6">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
       <c r="E6">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="F6">
@@ -2077,14 +1965,12 @@
         <v>37</v>
       </c>
       <c r="C7">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
       <c r="E7">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="F7">
@@ -2099,14 +1985,12 @@
         <v>37</v>
       </c>
       <c r="C8">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="F8">
@@ -2121,14 +2005,12 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
       <c r="E9">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="F9">
@@ -2143,14 +2025,12 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="D10">
         <v>12</v>
       </c>
       <c r="E10">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="F10">
@@ -2165,14 +2045,12 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="D11">
         <v>12</v>
       </c>
       <c r="E11">
-        <f>IF(ROW() &lt; 13, 0, SUM(#REF!))</f>
         <v>0</v>
       </c>
       <c r="F11">
@@ -2187,14 +2065,12 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <f>IF(ROW() &lt; 13, 0, SUM(B1:B11))</f>
         <v>0</v>
       </c>
       <c r="D12">
         <v>12</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E24" si="0">IF(ROW() &lt; 13, 0, SUM(D1:D12))</f>
         <v>0</v>
       </c>
       <c r="F12">
@@ -2209,14 +2085,14 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <f>IF(ROW() &lt; 13, 0, SUM(B2:B12))</f>
-        <v>402</v>
+        <f t="shared" ref="C12:C24" si="0">IF(ROW() &lt; 13, 0, SUM(B2:B13))</f>
+        <v>439</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E12:E24" si="1">IF(ROW() &lt; 13, 0, SUM(D2:D13))</f>
         <v>144</v>
       </c>
       <c r="F13">
@@ -2231,14 +2107,14 @@
         <v>37</v>
       </c>
       <c r="C14">
-        <f>IF(ROW() &lt; 13, 0, SUM(B3:B13))</f>
-        <v>404</v>
+        <f t="shared" si="0"/>
+        <v>441</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="F14">
@@ -2253,14 +2129,14 @@
         <v>37</v>
       </c>
       <c r="C15">
-        <f>IF(ROW() &lt; 13, 0, SUM(B4:B14))</f>
-        <v>406</v>
+        <f t="shared" si="0"/>
+        <v>443</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="F15">
@@ -2275,14 +2151,14 @@
         <v>37</v>
       </c>
       <c r="C16">
-        <f>IF(ROW() &lt; 13, 0, SUM(B5:B15))</f>
-        <v>407</v>
+        <f t="shared" si="0"/>
+        <v>444</v>
       </c>
       <c r="D16">
         <v>12</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="F16">
@@ -2297,14 +2173,14 @@
         <v>37</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C25" si="1">IF(ROW() &lt; 13, 0, SUM(B5:B16))</f>
+        <f t="shared" si="0"/>
         <v>444</v>
       </c>
       <c r="D17">
         <v>12</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="F17">
@@ -2319,14 +2195,14 @@
         <v>37</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
-        <v>444</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="F18">
@@ -2341,14 +2217,14 @@
         <v>37</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="1"/>
-        <v>444</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="F19">
@@ -2363,14 +2239,14 @@
         <v>37</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="1"/>
-        <v>444</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="F20">
@@ -2385,14 +2261,14 @@
         <v>37</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="1"/>
-        <v>444</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="F21">
@@ -2407,14 +2283,14 @@
         <v>37</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="1"/>
-        <v>444</v>
-      </c>
-      <c r="D22">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="F22">
@@ -2429,14 +2305,14 @@
         <v>37</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="1"/>
-        <v>444</v>
-      </c>
-      <c r="D23">
-        <v>12</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="F23">
@@ -2451,14 +2327,14 @@
         <v>37</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
-        <v>444</v>
-      </c>
-      <c r="D24">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="F24">
@@ -2473,7 +2349,7 @@
         <v>37</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f>IF(ROW() &lt; 13, 0, SUM(B14:B25))</f>
         <v>444</v>
       </c>
       <c r="D25">
